--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE5B781-78C9-41A6-974F-E41C60142E52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3F7F0A-6573-4F9F-84D8-8C507C305D11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2760" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="2025" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>AR1</t>
   </si>
@@ -64,19 +64,37 @@
   </si>
   <si>
     <t xml:space="preserve"> RUNNING 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            NaN</t>
+  </si>
+  <si>
+    <t>RUNNING2</t>
+  </si>
+  <si>
+    <t>RUNNING3</t>
+  </si>
+  <si>
+    <t>RUNNING1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,8 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -384,7 +405,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,10 +495,16 @@
       <c r="D4">
         <v>0.01</v>
       </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>0.1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -527,10 +554,16 @@
       <c r="D8">
         <v>0.01</v>
       </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>0.1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -694,6 +727,9 @@
       <c r="D18">
         <v>0.01</v>
       </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D19">
@@ -707,10 +743,16 @@
       <c r="D20">
         <v>0.01</v>
       </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>0.1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -723,6 +765,18 @@
       <c r="D22">
         <v>0.01</v>
       </c>
+      <c r="E22" s="1">
+        <v>0.57934451370836404</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.94660633484162904</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1">
+        <v>7.7219708396179004E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23">
@@ -744,5 +798,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3F7F0A-6573-4F9F-84D8-8C507C305D11}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007B6483-92B2-435E-ACAD-679513E2337F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6300" yWindow="2025" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>AR1</t>
   </si>
@@ -75,7 +75,7 @@
     <t>RUNNING3</t>
   </si>
   <si>
-    <t>RUNNING1</t>
+    <t>LMAOM</t>
   </si>
 </sst>
 </file>
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,13 +727,34 @@
       <c r="D18">
         <v>0.01</v>
       </c>
-      <c r="E18" t="s">
-        <v>16</v>
+      <c r="E18">
+        <v>0.65956586189058397</v>
+      </c>
+      <c r="F18">
+        <v>0.98104999999999998</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.99930345948456001</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2.1426417909685101E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>0.1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.74955272964581998</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.97377999999999998</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.98807147135156703</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2.1987730879509199E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -782,6 +803,18 @@
       <c r="D23">
         <v>0.1</v>
       </c>
+      <c r="E23" s="1">
+        <v>0.71295478027790105</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.90520864756158903</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1">
+        <v>7.7219708396179004E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24">
@@ -793,6 +826,91 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>0.01</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.189259762511405</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.64320500000000003</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.74989365162775601</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.25536752336059398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>1000</v>
+      </c>
+      <c r="D28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>0.01</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.196324981283276</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.58384615384615401</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.19175639414422099</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.77565741547515299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>1000</v>
+      </c>
+      <c r="D32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33">
         <v>0.1</v>
       </c>
     </row>

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007B6483-92B2-435E-ACAD-679513E2337F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C974F9C-A3DA-4160-BBC7-80BB1FB3178F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6300" yWindow="2025" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,10 +72,10 @@
     <t>RUNNING2</t>
   </si>
   <si>
-    <t>RUNNING3</t>
-  </si>
-  <si>
     <t>LMAOM</t>
+  </si>
+  <si>
+    <t>RUNNING1</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,15 +496,12 @@
         <v>0.01</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>0.1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -555,15 +552,12 @@
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>0.1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -764,16 +758,34 @@
       <c r="D20">
         <v>0.01</v>
       </c>
-      <c r="E20" t="s">
-        <v>14</v>
+      <c r="E20">
+        <v>0.64965977604731695</v>
+      </c>
+      <c r="F20">
+        <v>0.98994147325933401</v>
+      </c>
+      <c r="G20">
+        <v>0.998447019471987</v>
+      </c>
+      <c r="H20">
+        <v>1.75978142370691E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>0.1</v>
       </c>
-      <c r="E21" t="s">
-        <v>14</v>
+      <c r="E21">
+        <v>0.74620788168345697</v>
+      </c>
+      <c r="F21">
+        <v>0.98580726538849694</v>
+      </c>
+      <c r="G21">
+        <v>0.99671258926584505</v>
+      </c>
+      <c r="H21">
+        <v>1.87319674758838E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -823,15 +835,21 @@
       <c r="D24">
         <v>0.01</v>
       </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>0.1</v>
       </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -858,6 +876,9 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>0.1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -899,6 +920,9 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>0.1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C974F9C-A3DA-4160-BBC7-80BB1FB3178F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAD0656-3E5F-472C-949E-BE40009C452B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6300" yWindow="2025" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>AR1</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>VARMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUNNING 1</t>
   </si>
   <si>
     <t xml:space="preserve">            NaN</t>
@@ -405,7 +402,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +493,7 @@
         <v>0.01</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -552,7 +549,7 @@
         <v>0.01</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -687,8 +684,17 @@
       <c r="D16">
         <v>0.01</v>
       </c>
-      <c r="E16" t="s">
-        <v>12</v>
+      <c r="E16" s="1">
+        <v>0.65000010673968101</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.743861165776047</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.92887931034482796</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.71175116529549698</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -805,7 +811,7 @@
         <v>0.94660633484162904</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="1">
         <v>7.7219708396179004E-2</v>
@@ -822,7 +828,7 @@
         <v>0.90520864756158903</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="1">
         <v>7.7219708396179004E-2</v>
@@ -836,7 +842,7 @@
         <v>0.01</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -844,12 +850,12 @@
         <v>0.1</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -877,8 +883,17 @@
       <c r="D27">
         <v>0.1</v>
       </c>
-      <c r="E27" t="s">
-        <v>16</v>
+      <c r="E27" s="1">
+        <v>0.213596156621466</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.60492500000000005</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.75053453814829496</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.25657211794742302</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -921,8 +936,17 @@
       <c r="D31">
         <v>0.1</v>
       </c>
-      <c r="E31" t="s">
-        <v>16</v>
+      <c r="E31" s="1">
+        <v>0.20416238489108299</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.53861739567621902</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.21021601881653901</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.78314814263159505</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -932,10 +956,16 @@
       <c r="D32">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>0.1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAD0656-3E5F-472C-949E-BE40009C452B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3469F54F-00C5-4AA2-9D2F-C1967E5A1FC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6300" yWindow="2025" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>AR1</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Correctly Unscheduled</t>
   </si>
   <si>
-    <t xml:space="preserve">                                 NaN</t>
-  </si>
-  <si>
     <t>VARMA</t>
   </si>
   <si>
@@ -73,6 +70,15 @@
   </si>
   <si>
     <t>RUNNING1</t>
+  </si>
+  <si>
+    <t>(1)1</t>
+  </si>
+  <si>
+    <t>(1)12</t>
+  </si>
+  <si>
+    <t>(12)12</t>
   </si>
 </sst>
 </file>
@@ -399,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,8 +452,8 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -492,18 +498,30 @@
       <c r="D4">
         <v>0.01</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
+      <c r="E4">
+        <v>0.69543657698939498</v>
+      </c>
+      <c r="F4">
+        <v>0.95156811301715405</v>
+      </c>
+      <c r="G4">
+        <v>0.78619347109913196</v>
+      </c>
+      <c r="H4">
+        <v>0.15606714529844401</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>0.1</v>
       </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>12</v>
+      <c r="B6" t="s">
+        <v>16</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -517,8 +535,8 @@
       <c r="F6">
         <v>0.74820512820512797</v>
       </c>
-      <c r="G6" t="s">
-        <v>10</v>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H6">
         <v>0.70154499999999997</v>
@@ -548,21 +566,18 @@
       <c r="D8">
         <v>0.01</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>0.1</v>
       </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -570,34 +585,34 @@
       <c r="D10">
         <v>0.01</v>
       </c>
-      <c r="E10">
-        <v>0.67583907140727895</v>
-      </c>
-      <c r="F10">
-        <v>0.94155</v>
-      </c>
-      <c r="G10">
-        <v>0.84682926830000005</v>
-      </c>
-      <c r="H10">
-        <v>0.16165900969882599</v>
+      <c r="E10" s="1">
+        <v>0.44972909172612702</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.96843999999999997</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.58061420345489401</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.16013429970144499</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>0.1</v>
       </c>
-      <c r="E11">
-        <v>0.79456656649744895</v>
-      </c>
-      <c r="F11">
-        <v>0.90766000000000002</v>
-      </c>
-      <c r="G11">
-        <v>0.91823786436822896</v>
-      </c>
-      <c r="H11">
-        <v>0.16875670822125999</v>
+      <c r="E11" s="1">
+        <v>0.609087187165674</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.95399500000000004</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.83968437259430295</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.161516190632636</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -607,39 +622,18 @@
       <c r="D12">
         <v>0.01</v>
       </c>
-      <c r="E12">
-        <v>0.65511804791878103</v>
-      </c>
-      <c r="F12">
-        <v>0.95613975782038296</v>
-      </c>
-      <c r="G12">
-        <v>0.88787238354419395</v>
-      </c>
-      <c r="H12">
-        <v>0.15783644225629401</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>0.1</v>
       </c>
-      <c r="E13">
-        <v>0.79456656649744895</v>
-      </c>
-      <c r="F13">
-        <v>0.90766000000000002</v>
-      </c>
-      <c r="G13">
-        <v>0.91823786436822896</v>
-      </c>
-      <c r="H13">
-        <v>0.168751670822126</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
       <c r="B14">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -648,16 +642,16 @@
         <v>0.01</v>
       </c>
       <c r="E14">
-        <v>0.67448943850473697</v>
+        <v>0.67583907140727895</v>
       </c>
       <c r="F14">
-        <v>0.72986425339366501</v>
+        <v>0.94155</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.84682926830000005</v>
       </c>
       <c r="H14">
-        <v>0.69989291047214897</v>
+        <v>0.16165900969882599</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -665,16 +659,16 @@
         <v>0.1</v>
       </c>
       <c r="E15">
-        <v>0.79257039325658196</v>
+        <v>0.79456656649744895</v>
       </c>
       <c r="F15">
-        <v>0.56487682252388105</v>
+        <v>0.90766000000000002</v>
       </c>
       <c r="G15">
-        <v>0.53289970466717995</v>
+        <v>0.91823786436822896</v>
       </c>
       <c r="H15">
-        <v>0.70299460990595397</v>
+        <v>0.16875670822125999</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -684,17 +678,17 @@
       <c r="D16">
         <v>0.01</v>
       </c>
-      <c r="E16" s="1">
-        <v>0.65000010673968101</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.743861165776047</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.92887931034482796</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.71175116529549698</v>
+      <c r="E16">
+        <v>0.65511804791878103</v>
+      </c>
+      <c r="F16">
+        <v>0.95613975782038296</v>
+      </c>
+      <c r="G16">
+        <v>0.88787238354419395</v>
+      </c>
+      <c r="H16">
+        <v>0.15783644225629401</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -702,24 +696,21 @@
         <v>0.1</v>
       </c>
       <c r="E17">
-        <v>0.79257039325658196</v>
+        <v>0.79456656649744895</v>
       </c>
       <c r="F17">
-        <v>0.56487682252388105</v>
+        <v>0.90766000000000002</v>
       </c>
       <c r="G17">
-        <v>0.53289977046671799</v>
+        <v>0.91823786436822896</v>
       </c>
       <c r="H17">
-        <v>0.70299460990595397</v>
+        <v>0.168751670822126</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
       <c r="B18">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>100</v>
@@ -728,33 +719,33 @@
         <v>0.01</v>
       </c>
       <c r="E18">
-        <v>0.65956586189058397</v>
+        <v>0.67448943850473697</v>
       </c>
       <c r="F18">
-        <v>0.98104999999999998</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.99930345948456001</v>
-      </c>
-      <c r="H18" s="1">
-        <v>2.1426417909685101E-2</v>
+        <v>0.72986425339366501</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0.69989291047214897</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>0.1</v>
       </c>
-      <c r="E19" s="1">
-        <v>0.74955272964581998</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.97377999999999998</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.98807147135156703</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2.1987730879509199E-2</v>
+      <c r="E19">
+        <v>0.79257039325658196</v>
+      </c>
+      <c r="F19">
+        <v>0.56487682252388105</v>
+      </c>
+      <c r="G19">
+        <v>0.53289970466717995</v>
+      </c>
+      <c r="H19">
+        <v>0.70299460990595397</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -764,17 +755,17 @@
       <c r="D20">
         <v>0.01</v>
       </c>
-      <c r="E20">
-        <v>0.64965977604731695</v>
-      </c>
-      <c r="F20">
-        <v>0.98994147325933401</v>
-      </c>
-      <c r="G20">
-        <v>0.998447019471987</v>
-      </c>
-      <c r="H20">
-        <v>1.75978142370691E-2</v>
+      <c r="E20" s="1">
+        <v>0.65000010673968101</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.743861165776047</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.92887931034482796</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.71175116529549698</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -782,21 +773,24 @@
         <v>0.1</v>
       </c>
       <c r="E21">
-        <v>0.74620788168345697</v>
+        <v>0.79257039325658196</v>
       </c>
       <c r="F21">
-        <v>0.98580726538849694</v>
+        <v>0.56487682252388105</v>
       </c>
       <c r="G21">
-        <v>0.99671258926584505</v>
+        <v>0.53289977046671799</v>
       </c>
       <c r="H21">
-        <v>1.87319674758838E-2</v>
+        <v>0.70299460990595397</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
       <c r="B22">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -804,17 +798,17 @@
       <c r="D22">
         <v>0.01</v>
       </c>
-      <c r="E22" s="1">
-        <v>0.57934451370836404</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.94660633484162904</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>12</v>
+      <c r="E22">
+        <v>0.65956586189058397</v>
+      </c>
+      <c r="F22">
+        <v>0.98104999999999998</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.99930345948456001</v>
       </c>
       <c r="H22" s="1">
-        <v>7.7219708396179004E-2</v>
+        <v>2.1426417909685101E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -822,16 +816,16 @@
         <v>0.1</v>
       </c>
       <c r="E23" s="1">
-        <v>0.71295478027790105</v>
+        <v>0.74955272964581998</v>
       </c>
       <c r="F23" s="1">
-        <v>0.90520864756158903</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>12</v>
+        <v>0.97377999999999998</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.98807147135156703</v>
       </c>
       <c r="H23" s="1">
-        <v>7.7219708396179004E-2</v>
+        <v>2.1987730879509199E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -841,24 +835,39 @@
       <c r="D24">
         <v>0.01</v>
       </c>
-      <c r="E24" t="s">
-        <v>13</v>
+      <c r="E24">
+        <v>0.64965977604731695</v>
+      </c>
+      <c r="F24">
+        <v>0.98994147325933401</v>
+      </c>
+      <c r="G24">
+        <v>0.998447019471987</v>
+      </c>
+      <c r="H24">
+        <v>1.75978142370691E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>0.1</v>
       </c>
-      <c r="E25" t="s">
-        <v>13</v>
+      <c r="E25">
+        <v>0.74620788168345697</v>
+      </c>
+      <c r="F25">
+        <v>0.98580726538849694</v>
+      </c>
+      <c r="G25">
+        <v>0.99671258926584505</v>
+      </c>
+      <c r="H25">
+        <v>1.87319674758838E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
       <c r="B26">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>100</v>
@@ -867,16 +876,16 @@
         <v>0.01</v>
       </c>
       <c r="E26" s="1">
-        <v>0.189259762511405</v>
+        <v>0.57934451370836404</v>
       </c>
       <c r="F26" s="1">
-        <v>0.64320500000000003</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.74989365162775601</v>
+        <v>0.94660633484162904</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H26" s="1">
-        <v>0.25536752336059398</v>
+        <v>7.7219708396179004E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -884,16 +893,16 @@
         <v>0.1</v>
       </c>
       <c r="E27" s="1">
-        <v>0.213596156621466</v>
+        <v>0.71295478027790105</v>
       </c>
       <c r="F27" s="1">
-        <v>0.60492500000000005</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.75053453814829496</v>
+        <v>0.90520864756158903</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H27" s="1">
-        <v>0.25657211794742302</v>
+        <v>7.7219708396179004E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -903,15 +912,24 @@
       <c r="D28">
         <v>0.01</v>
       </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>0.1</v>
       </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
       <c r="B30">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>100</v>
@@ -920,16 +938,16 @@
         <v>0.01</v>
       </c>
       <c r="E30" s="1">
-        <v>0.196324981283276</v>
+        <v>0.189259762511405</v>
       </c>
       <c r="F30" s="1">
-        <v>0.58384615384615401</v>
+        <v>0.64320500000000003</v>
       </c>
       <c r="G30" s="1">
-        <v>0.19175639414422099</v>
+        <v>0.74989365162775601</v>
       </c>
       <c r="H30" s="1">
-        <v>0.77565741547515299</v>
+        <v>0.25536752336059398</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -937,16 +955,16 @@
         <v>0.1</v>
       </c>
       <c r="E31" s="1">
-        <v>0.20416238489108299</v>
+        <v>0.213596156621466</v>
       </c>
       <c r="F31" s="1">
-        <v>0.53861739567621902</v>
+        <v>0.60492500000000005</v>
       </c>
       <c r="G31" s="1">
-        <v>0.21021601881653901</v>
+        <v>0.75053453814829496</v>
       </c>
       <c r="H31" s="1">
-        <v>0.78314814263159505</v>
+        <v>0.25657211794742302</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -957,15 +975,74 @@
         <v>0.01</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>0.1</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>0.01</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.196324981283276</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.58384615384615401</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.19175639414422099</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.77565741547515299</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0.1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.20416238489108299</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.53861739567621902</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.21021601881653901</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.78314814263159505</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>1000</v>
+      </c>
+      <c r="D36">
+        <v>0.01</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>0.1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3469F54F-00C5-4AA2-9D2F-C1967E5A1FC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288A8642-E1D5-4A07-8B7D-1FF3A827A1AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2025" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7530" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>AR1</t>
   </si>
@@ -408,7 +408,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,10 +622,16 @@
       <c r="D12">
         <v>0.01</v>
       </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>0.1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288A8642-E1D5-4A07-8B7D-1FF3A827A1AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF8046C-9527-4974-B821-96DA86C0D414}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7530" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>AR1</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Correctly Unscheduled</t>
   </si>
   <si>
-    <t>VARMA</t>
-  </si>
-  <si>
     <t xml:space="preserve">            NaN</t>
   </si>
   <si>
@@ -79,6 +76,15 @@
   </si>
   <si>
     <t>(12)12</t>
+  </si>
+  <si>
+    <t>(6)12</t>
+  </si>
+  <si>
+    <t>VAR(1)</t>
+  </si>
+  <si>
+    <t>VAR(2)</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -516,12 +522,12 @@
         <v>0.1</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -536,7 +542,7 @@
         <v>0.74820512820512797</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>0.70154499999999997</v>
@@ -572,12 +578,12 @@
         <v>0.1</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -623,7 +629,7 @@
         <v>0.01</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -631,15 +637,12 @@
         <v>0.1</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>17</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -647,34 +650,10 @@
       <c r="D14">
         <v>0.01</v>
       </c>
-      <c r="E14">
-        <v>0.67583907140727895</v>
-      </c>
-      <c r="F14">
-        <v>0.94155</v>
-      </c>
-      <c r="G14">
-        <v>0.84682926830000005</v>
-      </c>
-      <c r="H14">
-        <v>0.16165900969882599</v>
-      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>0.1</v>
-      </c>
-      <c r="E15">
-        <v>0.79456656649744895</v>
-      </c>
-      <c r="F15">
-        <v>0.90766000000000002</v>
-      </c>
-      <c r="G15">
-        <v>0.91823786436822896</v>
-      </c>
-      <c r="H15">
-        <v>0.16875670822125999</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -684,39 +663,18 @@
       <c r="D16">
         <v>0.01</v>
       </c>
-      <c r="E16">
-        <v>0.65511804791878103</v>
-      </c>
-      <c r="F16">
-        <v>0.95613975782038296</v>
-      </c>
-      <c r="G16">
-        <v>0.88787238354419395</v>
-      </c>
-      <c r="H16">
-        <v>0.15783644225629401</v>
-      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>0.1</v>
       </c>
-      <c r="E17">
-        <v>0.79456656649744895</v>
-      </c>
-      <c r="F17">
-        <v>0.90766000000000002</v>
-      </c>
-      <c r="G17">
-        <v>0.91823786436822896</v>
-      </c>
-      <c r="H17">
-        <v>0.168751670822126</v>
-      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
       <c r="B18">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>100</v>
@@ -725,16 +683,16 @@
         <v>0.01</v>
       </c>
       <c r="E18">
-        <v>0.67448943850473697</v>
+        <v>0.67583907140727895</v>
       </c>
       <c r="F18">
-        <v>0.72986425339366501</v>
+        <v>0.94155</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.84682926830000005</v>
       </c>
       <c r="H18">
-        <v>0.69989291047214897</v>
+        <v>0.16165900969882599</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -742,16 +700,16 @@
         <v>0.1</v>
       </c>
       <c r="E19">
-        <v>0.79257039325658196</v>
+        <v>0.79456656649744895</v>
       </c>
       <c r="F19">
-        <v>0.56487682252388105</v>
+        <v>0.90766000000000002</v>
       </c>
       <c r="G19">
-        <v>0.53289970466717995</v>
+        <v>0.91823786436822896</v>
       </c>
       <c r="H19">
-        <v>0.70299460990595397</v>
+        <v>0.16875670822125999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -761,17 +719,17 @@
       <c r="D20">
         <v>0.01</v>
       </c>
-      <c r="E20" s="1">
-        <v>0.65000010673968101</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.743861165776047</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.92887931034482796</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.71175116529549698</v>
+      <c r="E20">
+        <v>0.65511804791878103</v>
+      </c>
+      <c r="F20">
+        <v>0.95613975782038296</v>
+      </c>
+      <c r="G20">
+        <v>0.88787238354419395</v>
+      </c>
+      <c r="H20">
+        <v>0.15783644225629401</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -779,24 +737,21 @@
         <v>0.1</v>
       </c>
       <c r="E21">
-        <v>0.79257039325658196</v>
+        <v>0.79456656649744895</v>
       </c>
       <c r="F21">
-        <v>0.56487682252388105</v>
+        <v>0.90766000000000002</v>
       </c>
       <c r="G21">
-        <v>0.53289977046671799</v>
+        <v>0.91823786436822896</v>
       </c>
       <c r="H21">
-        <v>0.70299460990595397</v>
+        <v>0.168751670822126</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
       <c r="B22">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -805,33 +760,33 @@
         <v>0.01</v>
       </c>
       <c r="E22">
-        <v>0.65956586189058397</v>
+        <v>0.67448943850473697</v>
       </c>
       <c r="F22">
-        <v>0.98104999999999998</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.99930345948456001</v>
-      </c>
-      <c r="H22" s="1">
-        <v>2.1426417909685101E-2</v>
+        <v>0.72986425339366501</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0.69989291047214897</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>0.1</v>
       </c>
-      <c r="E23" s="1">
-        <v>0.74955272964581998</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.97377999999999998</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.98807147135156703</v>
-      </c>
-      <c r="H23" s="1">
-        <v>2.1987730879509199E-2</v>
+      <c r="E23">
+        <v>0.79257039325658196</v>
+      </c>
+      <c r="F23">
+        <v>0.56487682252388105</v>
+      </c>
+      <c r="G23">
+        <v>0.53289970466717995</v>
+      </c>
+      <c r="H23">
+        <v>0.70299460990595397</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -841,17 +796,17 @@
       <c r="D24">
         <v>0.01</v>
       </c>
-      <c r="E24">
-        <v>0.64965977604731695</v>
-      </c>
-      <c r="F24">
-        <v>0.98994147325933401</v>
-      </c>
-      <c r="G24">
-        <v>0.998447019471987</v>
-      </c>
-      <c r="H24">
-        <v>1.75978142370691E-2</v>
+      <c r="E24" s="1">
+        <v>0.65000010673968101</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.743861165776047</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.92887931034482796</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.71175116529549698</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -859,21 +814,24 @@
         <v>0.1</v>
       </c>
       <c r="E25">
-        <v>0.74620788168345697</v>
+        <v>0.79257039325658196</v>
       </c>
       <c r="F25">
-        <v>0.98580726538849694</v>
+        <v>0.56487682252388105</v>
       </c>
       <c r="G25">
-        <v>0.99671258926584505</v>
+        <v>0.53289977046671799</v>
       </c>
       <c r="H25">
-        <v>1.87319674758838E-2</v>
+        <v>0.70299460990595397</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
       <c r="B26">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>100</v>
@@ -881,17 +839,17 @@
       <c r="D26">
         <v>0.01</v>
       </c>
-      <c r="E26" s="1">
-        <v>0.57934451370836404</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.94660633484162904</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>11</v>
+      <c r="E26">
+        <v>0.65956586189058397</v>
+      </c>
+      <c r="F26">
+        <v>0.98104999999999998</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.99930345948456001</v>
       </c>
       <c r="H26" s="1">
-        <v>7.7219708396179004E-2</v>
+        <v>2.1426417909685101E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -899,16 +857,16 @@
         <v>0.1</v>
       </c>
       <c r="E27" s="1">
-        <v>0.71295478027790105</v>
+        <v>0.74955272964581998</v>
       </c>
       <c r="F27" s="1">
-        <v>0.90520864756158903</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>11</v>
+        <v>0.97377999999999998</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.98807147135156703</v>
       </c>
       <c r="H27" s="1">
-        <v>7.7219708396179004E-2</v>
+        <v>2.1987730879509199E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -918,24 +876,39 @@
       <c r="D28">
         <v>0.01</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="E28">
+        <v>0.64965977604731695</v>
+      </c>
+      <c r="F28">
+        <v>0.98994147325933401</v>
+      </c>
+      <c r="G28">
+        <v>0.998447019471987</v>
+      </c>
+      <c r="H28">
+        <v>1.75978142370691E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>0.1</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29">
+        <v>0.74620788168345697</v>
+      </c>
+      <c r="F29">
+        <v>0.98580726538849694</v>
+      </c>
+      <c r="G29">
+        <v>0.99671258926584505</v>
+      </c>
+      <c r="H29">
+        <v>1.87319674758838E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
       </c>
       <c r="C30">
         <v>100</v>
@@ -944,16 +917,16 @@
         <v>0.01</v>
       </c>
       <c r="E30" s="1">
-        <v>0.189259762511405</v>
+        <v>0.57934451370836404</v>
       </c>
       <c r="F30" s="1">
-        <v>0.64320500000000003</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.74989365162775601</v>
+        <v>0.94660633484162904</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="H30" s="1">
-        <v>0.25536752336059398</v>
+        <v>7.7219708396179004E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -961,16 +934,16 @@
         <v>0.1</v>
       </c>
       <c r="E31" s="1">
-        <v>0.213596156621466</v>
+        <v>0.71295478027790105</v>
       </c>
       <c r="F31" s="1">
-        <v>0.60492500000000005</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.75053453814829496</v>
+        <v>0.90520864756158903</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="H31" s="1">
-        <v>0.25657211794742302</v>
+        <v>7.7219708396179004E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -980,21 +953,24 @@
       <c r="D32">
         <v>0.01</v>
       </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>0.1</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
       <c r="B34">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>100</v>
@@ -1002,53 +978,214 @@
       <c r="D34">
         <v>0.01</v>
       </c>
-      <c r="E34" s="1">
-        <v>0.196324981283276</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0.58384615384615401</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.19175639414422099</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0.77565741547515299</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>0.1</v>
       </c>
-      <c r="E35" s="1">
-        <v>0.20416238489108299</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0.53861739567621902</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0.21021601881653901</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.78314814263159505</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>1000</v>
       </c>
       <c r="D36">
         <v>0.01</v>
       </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>0.1</v>
       </c>
-      <c r="E37" t="s">
-        <v>14</v>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38">
+        <v>0.01</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>0.1</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>1000</v>
+      </c>
+      <c r="D40">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <v>0.01</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.189259762511405</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.64320500000000003</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.74989365162775601</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.25536752336059398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>0.1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.213596156621466</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.60492500000000005</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.75053453814829496</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.25657211794742302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>1000</v>
+      </c>
+      <c r="D44">
+        <v>0.01</v>
+      </c>
+      <c r="E44">
+        <v>0.20367194033156799</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.65498385469222997</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.75534150029643499</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.24102353796242501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>0.1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.241404806577872</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.61889606458123103</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.76214632611730504</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.24591796827806101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>0.01</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.196324981283276</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.58384615384615401</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.19175639414422099</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.77565741547515299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>0.1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.20416238489108299</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.53861739567621902</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.21021601881653901</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.78314814263159505</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>1000</v>
+      </c>
+      <c r="D48">
+        <v>0.01</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>0.1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF8046C-9527-4974-B821-96DA86C0D414}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{4BF8046C-9527-4974-B821-96DA86C0D414}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CEE29529-CDF5-448D-A345-7D9B3955693D}"/>
   <bookViews>
     <workbookView xWindow="7530" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,71 +33,71 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Job Length</t>
+  </si>
+  <si>
+    <t>Sample Size</t>
+  </si>
+  <si>
+    <t>Probability Cut Off</t>
+  </si>
+  <si>
+    <t>Avg Cycle Usage</t>
+  </si>
+  <si>
+    <t>Survival Rate</t>
+  </si>
+  <si>
+    <t>Correctly Scheduled</t>
+  </si>
+  <si>
+    <t>Correctly Unscheduled</t>
+  </si>
+  <si>
     <t>AR1</t>
   </si>
   <si>
+    <t>(1)1</t>
+  </si>
+  <si>
+    <t>RUNNING2</t>
+  </si>
+  <si>
+    <t>(1)12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            NaN</t>
+  </si>
+  <si>
+    <t>(12)12</t>
+  </si>
+  <si>
+    <t>RUNNING1</t>
+  </si>
+  <si>
+    <t>(6)12</t>
+  </si>
+  <si>
     <t>ARMA</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Job Length</t>
-  </si>
-  <si>
-    <t>Sample Size</t>
-  </si>
-  <si>
-    <t>Probability Cut Off</t>
-  </si>
-  <si>
-    <t>Avg Cycle Usage</t>
-  </si>
-  <si>
-    <t>Survival Rate</t>
-  </si>
-  <si>
-    <t>Correctly Scheduled</t>
-  </si>
-  <si>
-    <t>Correctly Unscheduled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            NaN</t>
-  </si>
-  <si>
-    <t>RUNNING2</t>
+    <t>VAR(1)</t>
+  </si>
+  <si>
+    <t>VAR(2)</t>
   </si>
   <si>
     <t>LMAOM</t>
-  </si>
-  <si>
-    <t>RUNNING1</t>
-  </si>
-  <si>
-    <t>(1)1</t>
-  </si>
-  <si>
-    <t>(1)12</t>
-  </si>
-  <si>
-    <t>(12)12</t>
-  </si>
-  <si>
-    <t>(6)12</t>
-  </si>
-  <si>
-    <t>VAR(1)</t>
-  </si>
-  <si>
-    <t>VAR(2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,7 +139,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -413,11 +419,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
@@ -428,38 +434,38 @@
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -480,7 +486,7 @@
         <v>0.15883370851901199</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="D3">
         <v>0.1</v>
       </c>
@@ -497,7 +503,7 @@
         <v>0.16455828484055099</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="C4">
         <v>1000</v>
       </c>
@@ -517,17 +523,17 @@
         <v>0.15606714529844401</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="D5">
         <v>0.1</v>
       </c>
       <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>15</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -542,13 +548,13 @@
         <v>0.74820512820512797</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>0.70154499999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="D7">
         <v>0.1</v>
       </c>
@@ -565,7 +571,7 @@
         <v>0.70302020202020199</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="C8">
         <v>1000</v>
       </c>
@@ -573,17 +579,17 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="D9">
         <v>0.1</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -604,7 +610,7 @@
         <v>0.16013429970144499</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="D11">
         <v>0.1</v>
       </c>
@@ -621,7 +627,7 @@
         <v>0.161516190632636</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="C12">
         <v>1000</v>
       </c>
@@ -629,20 +635,20 @@
         <v>0.01</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="D13">
         <v>0.1</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -650,13 +656,37 @@
       <c r="D14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0.51465104895348801</v>
+      </c>
+      <c r="F14">
+        <v>0.95238619309654804</v>
+      </c>
+      <c r="G14">
+        <v>0.62886597938144295</v>
+      </c>
+      <c r="H14">
+        <v>0.26686442924818499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="D15">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>0.66037815249349896</v>
+      </c>
+      <c r="F15">
+        <v>0.92505752876438196</v>
+      </c>
+      <c r="G15">
+        <v>0.505106778087279</v>
+      </c>
+      <c r="H15">
+        <v>0.264427888357611</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="C16">
         <v>1000</v>
       </c>
@@ -664,14 +694,14 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="D17">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -695,7 +725,7 @@
         <v>0.16165900969882599</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="D19">
         <v>0.1</v>
       </c>
@@ -712,7 +742,7 @@
         <v>0.16875670822125999</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="C20">
         <v>1000</v>
       </c>
@@ -732,7 +762,7 @@
         <v>0.15783644225629401</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="D21">
         <v>0.1</v>
       </c>
@@ -749,7 +779,7 @@
         <v>0.168751670822126</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22">
         <v>12</v>
       </c>
@@ -772,7 +802,7 @@
         <v>0.69989291047214897</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="D23">
         <v>0.1</v>
       </c>
@@ -789,7 +819,7 @@
         <v>0.70299460990595397</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="C24">
         <v>1000</v>
       </c>
@@ -809,7 +839,7 @@
         <v>0.71175116529549698</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="D25">
         <v>0.1</v>
       </c>
@@ -826,9 +856,9 @@
         <v>0.70299460990595397</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -852,7 +882,7 @@
         <v>2.1426417909685101E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="D27">
         <v>0.1</v>
       </c>
@@ -869,7 +899,7 @@
         <v>2.1987730879509199E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="C28">
         <v>1000</v>
       </c>
@@ -889,7 +919,7 @@
         <v>1.75978142370691E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="D29">
         <v>0.1</v>
       </c>
@@ -906,7 +936,7 @@
         <v>1.87319674758838E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30">
         <v>12</v>
       </c>
@@ -923,13 +953,13 @@
         <v>0.94660633484162904</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H30" s="1">
         <v>7.7219708396179004E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="D31">
         <v>0.1</v>
       </c>
@@ -940,13 +970,13 @@
         <v>0.90520864756158903</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H31" s="1">
         <v>7.7219708396179004E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="C32">
         <v>1000</v>
       </c>
@@ -957,17 +987,17 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="D33">
         <v>0.1</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -983,7 +1013,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="D35">
         <v>0.1</v>
       </c>
@@ -992,7 +1022,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="C36">
         <v>1000</v>
       </c>
@@ -1003,7 +1033,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="D37">
         <v>0.1</v>
       </c>
@@ -1012,7 +1042,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="B38">
         <v>12</v>
       </c>
@@ -1027,7 +1057,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="D39">
         <v>0.1</v>
       </c>
@@ -1036,7 +1066,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="C40">
         <v>1000</v>
       </c>
@@ -1044,14 +1074,14 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="D41">
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1075,7 +1105,7 @@
         <v>0.25536752336059398</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="D43">
         <v>0.1</v>
       </c>
@@ -1092,7 +1122,7 @@
         <v>0.25657211794742302</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="C44">
         <v>1000</v>
       </c>
@@ -1112,7 +1142,7 @@
         <v>0.24102353796242501</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="D45">
         <v>0.1</v>
       </c>
@@ -1129,7 +1159,7 @@
         <v>0.24591796827806101</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46">
         <v>12</v>
       </c>
@@ -1152,7 +1182,7 @@
         <v>0.77565741547515299</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="D47">
         <v>0.1</v>
       </c>
@@ -1169,7 +1199,7 @@
         <v>0.78314814263159505</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="C48">
         <v>1000</v>
       </c>
@@ -1177,15 +1207,15 @@
         <v>0.01</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
       <c r="D49">
         <v>0.1</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{4BF8046C-9527-4974-B821-96DA86C0D414}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CEE29529-CDF5-448D-A345-7D9B3955693D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC28C04-52C5-470F-99DF-CF2FA08DE53F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7530" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1008,19 +1008,35 @@
       <c r="D34">
         <v>0.01</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="E34" s="1">
+        <v>0.67673291885842302</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.97984000000000004</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.98056089905841903</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2.1060050598822901E-2</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="D35">
         <v>0.1</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="E35" s="1">
+        <v>0.76495347840547701</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.96462999999999999</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.98940228910555295</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2.2527879759380899E-2</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="C36">

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC28C04-52C5-470F-99DF-CF2FA08DE53F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D454A79C-2E49-4FF7-AF3B-60EC37F7A109}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7530" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Model</t>
   </si>
@@ -91,13 +91,16 @@
   </si>
   <si>
     <t>LMAOM</t>
+  </si>
+  <si>
+    <t>RUNNING3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,7 +142,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -419,11 +422,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
@@ -434,7 +437,7 @@
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -486,7 +489,7 @@
         <v>0.15883370851901199</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>0.1</v>
       </c>
@@ -503,7 +506,7 @@
         <v>0.16455828484055099</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>1000</v>
       </c>
@@ -523,7 +526,7 @@
         <v>0.15606714529844401</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>0.1</v>
       </c>
@@ -531,7 +534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -554,7 +557,7 @@
         <v>0.70154499999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>0.1</v>
       </c>
@@ -571,7 +574,7 @@
         <v>0.70302020202020199</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1000</v>
       </c>
@@ -579,7 +582,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>0.1</v>
       </c>
@@ -587,7 +590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -610,7 +613,7 @@
         <v>0.16013429970144499</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>0.1</v>
       </c>
@@ -627,26 +630,44 @@
         <v>0.161516190632636</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>1000</v>
       </c>
       <c r="D12">
         <v>0.01</v>
       </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="E12">
+        <v>0.40815679893948598</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.98171140262361301</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.85145554681353297</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.15709468894880901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>0.1</v>
       </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="E13">
+        <v>0.58546366869463295</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.96569778002018203</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.86400371762233796</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.15757881217445099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -669,7 +690,7 @@
         <v>0.26686442924818499</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>0.1</v>
       </c>
@@ -686,7 +707,7 @@
         <v>0.264427888357611</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>1000</v>
       </c>
@@ -694,12 +715,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -725,7 +746,7 @@
         <v>0.16165900969882599</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>0.1</v>
       </c>
@@ -742,7 +763,7 @@
         <v>0.16875670822125999</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1000</v>
       </c>
@@ -762,7 +783,7 @@
         <v>0.15783644225629401</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>0.1</v>
       </c>
@@ -779,7 +800,7 @@
         <v>0.168751670822126</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>12</v>
       </c>
@@ -802,7 +823,7 @@
         <v>0.69989291047214897</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>0.1</v>
       </c>
@@ -819,7 +840,7 @@
         <v>0.70299460990595397</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>1000</v>
       </c>
@@ -839,7 +860,7 @@
         <v>0.71175116529549698</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>0.1</v>
       </c>
@@ -856,7 +877,7 @@
         <v>0.70299460990595397</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -882,7 +903,7 @@
         <v>2.1426417909685101E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>0.1</v>
       </c>
@@ -899,7 +920,7 @@
         <v>2.1987730879509199E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>1000</v>
       </c>
@@ -919,7 +940,7 @@
         <v>1.75978142370691E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>0.1</v>
       </c>
@@ -936,7 +957,7 @@
         <v>1.87319674758838E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>12</v>
       </c>
@@ -959,7 +980,7 @@
         <v>7.7219708396179004E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>0.1</v>
       </c>
@@ -976,7 +997,7 @@
         <v>7.7219708396179004E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>1000</v>
       </c>
@@ -987,7 +1008,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>0.1</v>
       </c>
@@ -995,7 +1016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -1021,7 +1042,7 @@
         <v>2.1060050598822901E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>0.1</v>
       </c>
@@ -1038,7 +1059,7 @@
         <v>2.2527879759380899E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>1000</v>
       </c>
@@ -1049,7 +1070,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>0.1</v>
       </c>
@@ -1058,7 +1079,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>12</v>
       </c>
@@ -1068,21 +1089,25 @@
       <c r="D38">
         <v>0.01</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>0.1</v>
       </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>1000</v>
       </c>
@@ -1090,12 +1115,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -1121,7 +1146,7 @@
         <v>0.25536752336059398</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>0.1</v>
       </c>
@@ -1138,7 +1163,7 @@
         <v>0.25657211794742302</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>1000</v>
       </c>
@@ -1158,7 +1183,7 @@
         <v>0.24102353796242501</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D45">
         <v>0.1</v>
       </c>
@@ -1175,7 +1200,7 @@
         <v>0.24591796827806101</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>12</v>
       </c>
@@ -1198,7 +1223,7 @@
         <v>0.77565741547515299</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D47">
         <v>0.1</v>
       </c>
@@ -1215,7 +1240,7 @@
         <v>0.78314814263159505</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>1000</v>
       </c>
@@ -1226,7 +1251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="4:5">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D49">
         <v>0.1</v>
       </c>

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D454A79C-2E49-4FF7-AF3B-60EC37F7A109}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C37AFB-51A4-47C9-99F2-BD80A0DD85EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7530" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Model</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>RUNNING3</t>
+  </si>
+  <si>
+    <t>RUNNING4</t>
   </si>
 </sst>
 </file>
@@ -109,10 +112,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,8 +139,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -423,839 +428,852 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>100</v>
       </c>
-      <c r="D2">
-        <v>0.01</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="1">
         <v>0.70480491000925405</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0.94433</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>0.71174029777886305</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>0.15883370851901199</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.81179741127971805</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.91320500000000004</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0.86924007478279997</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>0.16455828484055099</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1000</v>
       </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="1">
         <v>0.69543657698939498</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.95156811301715405</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>0.78619347109913196</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>0.15606714529844401</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5">
-        <v>0.1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>100</v>
       </c>
-      <c r="D6">
-        <v>0.01</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.682212113047449</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0.74820512820512797</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>0.70154499999999997</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <v>0.1</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="1">
         <v>0.79659075573691596</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0.583388637506285</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0.45</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>0.70302020202020199</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1000</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>0.1</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>100</v>
       </c>
-      <c r="D10">
-        <v>0.01</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="2">
         <v>0.44972909172612702</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0.96843999999999997</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>0.58061420345489401</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>0.16013429970144499</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11">
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="2">
         <v>0.609087187165674</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0.95399500000000004</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>0.83968437259430295</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>0.161516190632636</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12">
+      <c r="C12" s="1">
         <v>1000</v>
       </c>
-      <c r="D12">
-        <v>0.01</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="1">
         <v>0.40815679893948598</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0.98171140262361301</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>0.85145554681353297</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>0.15709468894880901</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <v>0.1</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="1">
         <v>0.58546366869463295</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0.96569778002018203</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>0.86400371762233796</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>0.15757881217445099</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>100</v>
       </c>
-      <c r="D14">
-        <v>0.01</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="1">
         <v>0.51465104895348801</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>0.95238619309654804</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>0.62886597938144295</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>0.26686442924818499</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>0.1</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="1">
         <v>0.66037815249349896</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>0.92505752876438196</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>0.505106778087279</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>0.264427888357611</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16">
+      <c r="C16" s="1">
         <v>1000</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D17">
+      <c r="D17" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>100</v>
       </c>
-      <c r="D18">
-        <v>0.01</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E18" s="1">
         <v>0.67583907140727895</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>0.94155</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>0.84682926830000005</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>0.16165900969882599</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D19">
-        <v>0.1</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="1">
         <v>0.79456656649744895</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>0.90766000000000002</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>0.91823786436822896</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>0.16875670822125999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C20">
+      <c r="C20" s="1">
         <v>1000</v>
       </c>
-      <c r="D20">
-        <v>0.01</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E20" s="1">
         <v>0.65511804791878103</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>0.95613975782038296</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>0.88787238354419395</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>0.15783644225629401</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D21">
-        <v>0.1</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="1">
         <v>0.79456656649744895</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>0.90766000000000002</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>0.91823786436822896</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>0.168751670822126</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22">
+      <c r="B22" s="1">
         <v>12</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>100</v>
       </c>
-      <c r="D22">
-        <v>0.01</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E22" s="1">
         <v>0.67448943850473697</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>0.72986425339366501</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>0.69989291047214897</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D23">
-        <v>0.1</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="1">
         <v>0.79257039325658196</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>0.56487682252388105</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>0.53289970466717995</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>0.70299460990595397</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C24">
+      <c r="C24" s="1">
         <v>1000</v>
       </c>
-      <c r="D24">
-        <v>0.01</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E24" s="2">
         <v>0.65000010673968101</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>0.743861165776047</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>0.92887931034482796</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>0.71175116529549698</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D25">
-        <v>0.1</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="1">
         <v>0.79257039325658196</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>0.56487682252388105</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>0.53289977046671799</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>0.70299460990595397</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>100</v>
       </c>
-      <c r="D26">
-        <v>0.01</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E26" s="1">
         <v>0.65956586189058397</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>0.98104999999999998</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>0.99930345948456001</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>2.1426417909685101E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <v>0.1</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E27" s="2">
         <v>0.74955272964581998</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>0.97377999999999998</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <v>0.98807147135156703</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <v>2.1987730879509199E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C28">
+      <c r="C28" s="1">
         <v>1000</v>
       </c>
-      <c r="D28">
-        <v>0.01</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E28" s="1">
         <v>0.64965977604731695</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>0.98994147325933401</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>0.998447019471987</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>1.75978142370691E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D29">
-        <v>0.1</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="1">
         <v>0.74620788168345697</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>0.98580726538849694</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>0.99671258926584505</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>1.87319674758838E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="B30" s="1">
         <v>12</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>100</v>
       </c>
-      <c r="D30">
-        <v>0.01</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E30" s="2">
         <v>0.57934451370836404</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>0.94660633484162904</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
         <v>7.7219708396179004E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D31">
-        <v>0.1</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="2">
         <v>0.71295478027790105</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>0.90520864756158903</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="2">
         <v>7.7219708396179004E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C32">
+      <c r="C32" s="1">
         <v>1000</v>
       </c>
-      <c r="D32">
-        <v>0.01</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="D32" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D33">
-        <v>0.1</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>1</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>100</v>
       </c>
-      <c r="D34">
-        <v>0.01</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E34" s="2">
         <v>0.67673291885842302</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>0.97984000000000004</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="2">
         <v>0.98056089905841903</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
         <v>2.1060050598822901E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D35">
-        <v>0.1</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E35" s="2">
         <v>0.76495347840547701</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>0.96462999999999999</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="2">
         <v>0.98940228910555295</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
         <v>2.2527879759380899E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C36">
+      <c r="C36" s="1">
         <v>1000</v>
       </c>
-      <c r="D36">
-        <v>0.01</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="D36" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D37">
-        <v>0.1</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="D37" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38">
+      <c r="B38" s="1">
         <v>12</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>100</v>
       </c>
-      <c r="D38">
-        <v>0.01</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="D38" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D39">
-        <v>0.1</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="D39" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C40">
+      <c r="C40" s="1">
         <v>1000</v>
       </c>
-      <c r="D40">
-        <v>0.01</v>
+      <c r="D40" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D41">
-        <v>0.1</v>
+      <c r="D41" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>1</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>100</v>
       </c>
-      <c r="D42">
-        <v>0.01</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="D42" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E42" s="2">
         <v>0.189259762511405</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>0.64320500000000003</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="2">
         <v>0.74989365162775601</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="2">
         <v>0.25536752336059398</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D43">
-        <v>0.1</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="D43" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E43" s="2">
         <v>0.213596156621466</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>0.60492500000000005</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="2">
         <v>0.75053453814829496</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="2">
         <v>0.25657211794742302</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C44">
+      <c r="C44" s="1">
         <v>1000</v>
       </c>
-      <c r="D44">
-        <v>0.01</v>
-      </c>
-      <c r="E44">
+      <c r="D44" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E44" s="1">
         <v>0.20367194033156799</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>0.65498385469222997</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="2">
         <v>0.75534150029643499</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="2">
         <v>0.24102353796242501</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D45">
-        <v>0.1</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="D45" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E45" s="2">
         <v>0.241404806577872</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>0.61889606458123103</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="2">
         <v>0.76214632611730504</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="2">
         <v>0.24591796827806101</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46">
+      <c r="B46" s="1">
         <v>12</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>100</v>
       </c>
-      <c r="D46">
-        <v>0.01</v>
-      </c>
-      <c r="E46" s="1">
+      <c r="D46" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E46" s="2">
         <v>0.196324981283276</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>0.58384615384615401</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="2">
         <v>0.19175639414422099</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="2">
         <v>0.77565741547515299</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D47">
-        <v>0.1</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="D47" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E47" s="2">
         <v>0.20416238489108299</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="2">
         <v>0.53861739567621902</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="2">
         <v>0.21021601881653901</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="2">
         <v>0.78314814263159505</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C48">
+      <c r="C48" s="1">
         <v>1000</v>
       </c>
-      <c r="D48">
-        <v>0.01</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D49">
-        <v>0.1</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C37AFB-51A4-47C9-99F2-BD80A0DD85EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F166F113-2F15-4E56-ABEE-EC4897F3C822}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7530" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Model</t>
   </si>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,8 +537,17 @@
       <c r="D5" s="1">
         <v>0.1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
+      <c r="E5" s="1">
+        <v>0.80960436085548504</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.91904187689202799</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.88280974436368498</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.16084936975521499</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F166F113-2F15-4E56-ABEE-EC4897F3C822}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28146C87-2DAB-4E84-9632-3954C0E0DE0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7530" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28146C87-2DAB-4E84-9632-3954C0E0DE0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E183B6-8E03-46F4-9124-2CB5B24FB402}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7530" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Model</t>
   </si>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,6 +597,9 @@
       <c r="D8" s="1">
         <v>0.01</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" s="1">

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E183B6-8E03-46F4-9124-2CB5B24FB402}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15EFF82D-82B0-45B3-9241-820B0E67BC2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7530" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,47 +63,47 @@
     <t>(1)1</t>
   </si>
   <si>
+    <t>(1)12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            NaN</t>
+  </si>
+  <si>
+    <t>RUNNING4</t>
+  </si>
+  <si>
     <t>RUNNING2</t>
   </si>
   <si>
-    <t>(1)12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            NaN</t>
-  </si>
-  <si>
     <t>(12)12</t>
   </si>
   <si>
+    <t>(6)12</t>
+  </si>
+  <si>
+    <t>ARMA</t>
+  </si>
+  <si>
+    <t>RUNNING3</t>
+  </si>
+  <si>
+    <t>VAR(1)</t>
+  </si>
+  <si>
+    <t>VAR(2)</t>
+  </si>
+  <si>
+    <t>LMAOM</t>
+  </si>
+  <si>
     <t>RUNNING1</t>
-  </si>
-  <si>
-    <t>(6)12</t>
-  </si>
-  <si>
-    <t>ARMA</t>
-  </si>
-  <si>
-    <t>VAR(1)</t>
-  </si>
-  <si>
-    <t>VAR(2)</t>
-  </si>
-  <si>
-    <t>LMAOM</t>
-  </si>
-  <si>
-    <t>RUNNING3</t>
-  </si>
-  <si>
-    <t>RUNNING4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,7 +147,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,11 +427,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
@@ -444,7 +444,7 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -496,7 +496,7 @@
         <v>0.15883370851901199</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="D3" s="1">
         <v>0.1</v>
       </c>
@@ -513,7 +513,7 @@
         <v>0.16455828484055099</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="C4" s="1">
         <v>1000</v>
       </c>
@@ -533,7 +533,7 @@
         <v>0.15606714529844401</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="D5" s="1">
         <v>0.1</v>
       </c>
@@ -550,9 +550,9 @@
         <v>0.16084936975521499</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>100</v>
@@ -567,13 +567,13 @@
         <v>0.74820512820512797</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="1">
         <v>0.70154499999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="D7" s="1">
         <v>0.1</v>
       </c>
@@ -590,7 +590,7 @@
         <v>0.70302020202020199</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="C8" s="1">
         <v>1000</v>
       </c>
@@ -598,20 +598,20 @@
         <v>0.01</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="D9" s="1">
         <v>0.1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>100</v>
@@ -632,7 +632,7 @@
         <v>0.16013429970144499</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="D11" s="1">
         <v>0.1</v>
       </c>
@@ -649,7 +649,7 @@
         <v>0.161516190632636</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="C12" s="1">
         <v>1000</v>
       </c>
@@ -669,7 +669,7 @@
         <v>0.15709468894880901</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="D13" s="1">
         <v>0.1</v>
       </c>
@@ -686,7 +686,7 @@
         <v>0.15757881217445099</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
@@ -709,7 +709,7 @@
         <v>0.26686442924818499</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="D15" s="1">
         <v>0.1</v>
       </c>
@@ -726,7 +726,7 @@
         <v>0.264427888357611</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="C16" s="1">
         <v>1000</v>
       </c>
@@ -734,12 +734,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="D17" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -765,7 +765,7 @@
         <v>0.16165900969882599</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="D19" s="1">
         <v>0.1</v>
       </c>
@@ -782,7 +782,7 @@
         <v>0.16875670822125999</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="C20" s="1">
         <v>1000</v>
       </c>
@@ -802,24 +802,15 @@
         <v>0.15783644225629401</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="D21" s="1">
         <v>0.1</v>
       </c>
-      <c r="E21" s="1">
-        <v>0.79456656649744895</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.90766000000000002</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.91823786436822896</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.168751670822126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="B22" s="1">
         <v>12</v>
       </c>
@@ -842,7 +833,7 @@
         <v>0.69989291047214897</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="D23" s="1">
         <v>0.1</v>
       </c>
@@ -859,7 +850,7 @@
         <v>0.70299460990595397</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="C24" s="1">
         <v>1000</v>
       </c>
@@ -879,7 +870,7 @@
         <v>0.71175116529549698</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="D25" s="1">
         <v>0.1</v>
       </c>
@@ -896,9 +887,9 @@
         <v>0.70299460990595397</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -922,7 +913,7 @@
         <v>2.1426417909685101E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="D27" s="1">
         <v>0.1</v>
       </c>
@@ -939,7 +930,7 @@
         <v>2.1987730879509199E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="C28" s="1">
         <v>1000</v>
       </c>
@@ -959,7 +950,7 @@
         <v>1.75978142370691E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="D29" s="1">
         <v>0.1</v>
       </c>
@@ -976,7 +967,7 @@
         <v>1.87319674758838E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30" s="1">
         <v>12</v>
       </c>
@@ -993,13 +984,13 @@
         <v>0.94660633484162904</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="2">
         <v>7.7219708396179004E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="D31" s="1">
         <v>0.1</v>
       </c>
@@ -1010,13 +1001,13 @@
         <v>0.90520864756158903</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="2">
         <v>7.7219708396179004E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="C32" s="1">
         <v>1000</v>
       </c>
@@ -1027,17 +1018,17 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="D33" s="1">
         <v>0.1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
@@ -1061,7 +1052,7 @@
         <v>2.1060050598822901E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="D35" s="1">
         <v>0.1</v>
       </c>
@@ -1078,7 +1069,7 @@
         <v>2.2527879759380899E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="C36" s="1">
         <v>1000</v>
       </c>
@@ -1086,24 +1077,24 @@
         <v>0.01</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="D37" s="1">
         <v>0.1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="B38" s="1">
         <v>12</v>
       </c>
@@ -1113,25 +1104,37 @@
       <c r="D38" s="1">
         <v>0.01</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E38" s="2">
+        <v>0.58910423145852198</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.93690296631473102</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="2">
+        <v>7.7219708396179004E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="D39" s="1">
         <v>0.1</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E39" s="2">
+        <v>0.72330200513032195</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.86647058823529399</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>7.7999705450685797E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="C40" s="1">
         <v>1000</v>
       </c>
@@ -1139,20 +1142,20 @@
         <v>0.01</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="D41" s="1">
         <v>0.1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -1176,7 +1179,7 @@
         <v>0.25536752336059398</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="D43" s="1">
         <v>0.1</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>0.25657211794742302</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="C44" s="1">
         <v>1000</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>0.24102353796242501</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="D45" s="1">
         <v>0.1</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v>0.24591796827806101</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46" s="1">
         <v>12</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>0.77565741547515299</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="D47" s="1">
         <v>0.1</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>0.78314814263159505</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="C48" s="1">
         <v>1000</v>
       </c>
@@ -1278,15 +1281,15 @@
         <v>0.01</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
       <c r="D49" s="1">
         <v>0.1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15EFF82D-82B0-45B3-9241-820B0E67BC2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE38B180-F814-4EBD-B7C3-572A481AF685}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7530" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7875" yWindow="2475" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Model</t>
   </si>
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,7 +147,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,11 +427,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
@@ -444,7 +444,7 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -496,7 +496,7 @@
         <v>0.15883370851901199</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D3" s="1">
         <v>0.1</v>
       </c>
@@ -513,7 +513,7 @@
         <v>0.16455828484055099</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>1000</v>
       </c>
@@ -533,7 +533,7 @@
         <v>0.15606714529844401</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
         <v>0.1</v>
       </c>
@@ -550,7 +550,7 @@
         <v>0.16084936975521499</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -573,7 +573,7 @@
         <v>0.70154499999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
         <v>0.1</v>
       </c>
@@ -590,7 +590,7 @@
         <v>0.70302020202020199</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>1000</v>
       </c>
@@ -601,7 +601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <v>0.1</v>
       </c>
@@ -609,7 +609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -632,7 +632,7 @@
         <v>0.16013429970144499</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <v>0.1</v>
       </c>
@@ -649,7 +649,7 @@
         <v>0.161516190632636</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>1000</v>
       </c>
@@ -669,7 +669,7 @@
         <v>0.15709468894880901</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="1">
         <v>0.1</v>
       </c>
@@ -686,7 +686,7 @@
         <v>0.15757881217445099</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
@@ -709,7 +709,7 @@
         <v>0.26686442924818499</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
         <v>0.1</v>
       </c>
@@ -726,7 +726,7 @@
         <v>0.264427888357611</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>1000</v>
       </c>
@@ -734,12 +734,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D17" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -765,7 +765,7 @@
         <v>0.16165900969882599</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>0.1</v>
       </c>
@@ -782,7 +782,7 @@
         <v>0.16875670822125999</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>1000</v>
       </c>
@@ -802,7 +802,7 @@
         <v>0.15783644225629401</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <v>0.1</v>
       </c>
@@ -810,7 +810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>12</v>
       </c>
@@ -833,7 +833,7 @@
         <v>0.69989291047214897</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
         <v>0.1</v>
       </c>
@@ -850,7 +850,7 @@
         <v>0.70299460990595397</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>1000</v>
       </c>
@@ -870,7 +870,7 @@
         <v>0.71175116529549698</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25" s="1">
         <v>0.1</v>
       </c>
@@ -887,7 +887,7 @@
         <v>0.70299460990595397</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -913,7 +913,7 @@
         <v>2.1426417909685101E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D27" s="1">
         <v>0.1</v>
       </c>
@@ -930,7 +930,7 @@
         <v>2.1987730879509199E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <v>1000</v>
       </c>
@@ -950,7 +950,7 @@
         <v>1.75978142370691E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D29" s="1">
         <v>0.1</v>
       </c>
@@ -967,7 +967,7 @@
         <v>1.87319674758838E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>12</v>
       </c>
@@ -990,7 +990,7 @@
         <v>7.7219708396179004E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D31" s="1">
         <v>0.1</v>
       </c>
@@ -1007,18 +1007,21 @@
         <v>7.7219708396179004E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <v>1000</v>
       </c>
       <c r="D32" s="1">
         <v>0.01</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D33" s="1">
         <v>0.1</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>2.1060050598822901E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
         <v>0.1</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>2.2527879759380899E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>1000</v>
       </c>
@@ -1083,7 +1086,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D37" s="1">
         <v>0.1</v>
       </c>
@@ -1094,7 +1097,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>12</v>
       </c>
@@ -1117,7 +1120,7 @@
         <v>7.7219708396179004E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D39" s="1">
         <v>0.1</v>
       </c>
@@ -1134,7 +1137,7 @@
         <v>7.7999705450685797E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
         <v>1000</v>
       </c>
@@ -1145,7 +1148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D41" s="1">
         <v>0.1</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,7 +1182,7 @@
         <v>0.25536752336059398</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D43" s="1">
         <v>0.1</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>0.25657211794742302</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="1">
         <v>1000</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>0.24102353796242501</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D45" s="1">
         <v>0.1</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>0.24591796827806101</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>12</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>0.77565741547515299</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D47" s="1">
         <v>0.1</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>0.78314814263159505</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="1">
         <v>1000</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="4:5">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D49" s="1">
         <v>0.1</v>
       </c>

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE38B180-F814-4EBD-B7C3-572A481AF685}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97E5E498-F5DD-42FA-B3A1-D995BE05460F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7875" yWindow="2475" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,7 +147,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,11 +427,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
@@ -444,7 +444,7 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -496,7 +496,7 @@
         <v>0.15883370851901199</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="D3" s="1">
         <v>0.1</v>
       </c>
@@ -513,7 +513,7 @@
         <v>0.16455828484055099</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="C4" s="1">
         <v>1000</v>
       </c>
@@ -533,7 +533,7 @@
         <v>0.15606714529844401</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="D5" s="1">
         <v>0.1</v>
       </c>
@@ -550,7 +550,7 @@
         <v>0.16084936975521499</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -573,7 +573,7 @@
         <v>0.70154499999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="D7" s="1">
         <v>0.1</v>
       </c>
@@ -590,7 +590,7 @@
         <v>0.70302020202020199</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="C8" s="1">
         <v>1000</v>
       </c>
@@ -601,7 +601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="D9" s="1">
         <v>0.1</v>
       </c>
@@ -609,7 +609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -632,7 +632,7 @@
         <v>0.16013429970144499</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="D11" s="1">
         <v>0.1</v>
       </c>
@@ -649,7 +649,7 @@
         <v>0.161516190632636</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="C12" s="1">
         <v>1000</v>
       </c>
@@ -669,7 +669,7 @@
         <v>0.15709468894880901</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="D13" s="1">
         <v>0.1</v>
       </c>
@@ -686,7 +686,7 @@
         <v>0.15757881217445099</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
@@ -709,7 +709,7 @@
         <v>0.26686442924818499</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="D15" s="1">
         <v>0.1</v>
       </c>
@@ -726,7 +726,7 @@
         <v>0.264427888357611</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="C16" s="1">
         <v>1000</v>
       </c>
@@ -734,12 +734,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="D17" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -765,7 +765,7 @@
         <v>0.16165900969882599</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="D19" s="1">
         <v>0.1</v>
       </c>
@@ -782,7 +782,7 @@
         <v>0.16875670822125999</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="C20" s="1">
         <v>1000</v>
       </c>
@@ -802,15 +802,24 @@
         <v>0.15783644225629401</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="D21" s="1">
         <v>0.1</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <v>0.78166644435979005</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.92042381432896103</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.91552596504304895</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.16333907443750101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="B22" s="1">
         <v>12</v>
       </c>
@@ -833,7 +842,7 @@
         <v>0.69989291047214897</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="D23" s="1">
         <v>0.1</v>
       </c>
@@ -850,7 +859,7 @@
         <v>0.70299460990595397</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="C24" s="1">
         <v>1000</v>
       </c>
@@ -870,24 +879,15 @@
         <v>0.71175116529549698</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="D25" s="1">
         <v>0.1</v>
       </c>
-      <c r="E25" s="1">
-        <v>0.79257039325658196</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.56487682252388105</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.53289977046671799</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.70299460990595397</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -913,7 +913,7 @@
         <v>2.1426417909685101E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="D27" s="1">
         <v>0.1</v>
       </c>
@@ -930,7 +930,7 @@
         <v>2.1987730879509199E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="C28" s="1">
         <v>1000</v>
       </c>
@@ -950,7 +950,7 @@
         <v>1.75978142370691E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="D29" s="1">
         <v>0.1</v>
       </c>
@@ -967,7 +967,7 @@
         <v>1.87319674758838E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30" s="1">
         <v>12</v>
       </c>
@@ -990,7 +990,7 @@
         <v>7.7219708396179004E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="D31" s="1">
         <v>0.1</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>7.7219708396179004E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="C32" s="1">
         <v>1000</v>
       </c>
@@ -1021,7 +1021,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="D33" s="1">
         <v>0.1</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>2.1060050598822901E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="D35" s="1">
         <v>0.1</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>2.2527879759380899E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="C36" s="1">
         <v>1000</v>
       </c>
@@ -1086,7 +1086,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="D37" s="1">
         <v>0.1</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="B38" s="1">
         <v>12</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>7.7219708396179004E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="D39" s="1">
         <v>0.1</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>7.7999705450685797E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="C40" s="1">
         <v>1000</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="D41" s="1">
         <v>0.1</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0.25536752336059398</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="D43" s="1">
         <v>0.1</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>0.25657211794742302</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="C44" s="1">
         <v>1000</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>0.24102353796242501</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="D45" s="1">
         <v>0.1</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>0.24591796827806101</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46" s="1">
         <v>12</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>0.77565741547515299</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="D47" s="1">
         <v>0.1</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>0.78314814263159505</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="C48" s="1">
         <v>1000</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:5">
       <c r="D49" s="1">
         <v>0.1</v>
       </c>

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97E5E498-F5DD-42FA-B3A1-D995BE05460F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBA33CA-5CA6-4DAF-BBCC-9A0E4DC976CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="2475" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="2820" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Model</t>
   </si>
@@ -94,16 +94,13 @@
   </si>
   <si>
     <t>LMAOM</t>
-  </si>
-  <si>
-    <t>RUNNING1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +114,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,15 +142,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,11 +433,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
@@ -444,7 +450,7 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -496,7 +502,7 @@
         <v>0.15883370851901199</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D3" s="1">
         <v>0.1</v>
       </c>
@@ -513,7 +519,7 @@
         <v>0.16455828484055099</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>1000</v>
       </c>
@@ -533,7 +539,7 @@
         <v>0.15606714529844401</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
         <v>0.1</v>
       </c>
@@ -550,7 +556,7 @@
         <v>0.16084936975521499</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -573,7 +579,7 @@
         <v>0.70154499999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
         <v>0.1</v>
       </c>
@@ -590,7 +596,7 @@
         <v>0.70302020202020199</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>1000</v>
       </c>
@@ -601,15 +607,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <v>0.1</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="E9" s="1">
+        <v>0.79120966824319605</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.58104387450858597</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.49564311422617902</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.71381861601812302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -632,7 +647,7 @@
         <v>0.16013429970144499</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <v>0.1</v>
       </c>
@@ -649,7 +664,7 @@
         <v>0.161516190632636</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>1000</v>
       </c>
@@ -669,7 +684,7 @@
         <v>0.15709468894880901</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="1">
         <v>0.1</v>
       </c>
@@ -686,7 +701,7 @@
         <v>0.15757881217445099</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
@@ -709,7 +724,7 @@
         <v>0.26686442924818499</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
         <v>0.1</v>
       </c>
@@ -726,20 +741,32 @@
         <v>0.264427888357611</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>1000</v>
       </c>
       <c r="D16" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="E16" s="1">
+        <v>0.47045879711418598</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.96482398616058795</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.77992695793318001</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.26278039123734498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D17" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -765,7 +792,7 @@
         <v>0.16165900969882599</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>0.1</v>
       </c>
@@ -782,7 +809,7 @@
         <v>0.16875670822125999</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>1000</v>
       </c>
@@ -802,7 +829,7 @@
         <v>0.15783644225629401</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <v>0.1</v>
       </c>
@@ -819,7 +846,7 @@
         <v>0.16333907443750101</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>12</v>
       </c>
@@ -842,7 +869,7 @@
         <v>0.69989291047214897</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
         <v>0.1</v>
       </c>
@@ -859,7 +886,7 @@
         <v>0.70299460990595397</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>1000</v>
       </c>
@@ -879,7 +906,7 @@
         <v>0.71175116529549698</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25" s="1">
         <v>0.1</v>
       </c>
@@ -887,7 +914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -913,7 +940,7 @@
         <v>2.1426417909685101E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D27" s="1">
         <v>0.1</v>
       </c>
@@ -930,7 +957,7 @@
         <v>2.1987730879509199E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <v>1000</v>
       </c>
@@ -950,7 +977,7 @@
         <v>1.75978142370691E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D29" s="1">
         <v>0.1</v>
       </c>
@@ -967,7 +994,7 @@
         <v>1.87319674758838E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>12</v>
       </c>
@@ -990,7 +1017,7 @@
         <v>7.7219708396179004E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D31" s="1">
         <v>0.1</v>
       </c>
@@ -1007,7 +1034,7 @@
         <v>7.7219708396179004E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <v>1000</v>
       </c>
@@ -1021,7 +1048,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D33" s="1">
         <v>0.1</v>
       </c>
@@ -1029,7 +1056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
@@ -1055,7 +1082,7 @@
         <v>2.1060050598822901E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
         <v>0.1</v>
       </c>
@@ -1072,7 +1099,7 @@
         <v>2.2527879759380899E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>1000</v>
       </c>
@@ -1086,7 +1113,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D37" s="1">
         <v>0.1</v>
       </c>
@@ -1097,7 +1124,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>12</v>
       </c>
@@ -1120,7 +1147,7 @@
         <v>7.7219708396179004E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D39" s="1">
         <v>0.1</v>
       </c>
@@ -1137,7 +1164,7 @@
         <v>7.7999705450685797E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
         <v>1000</v>
       </c>
@@ -1148,7 +1175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D41" s="1">
         <v>0.1</v>
       </c>
@@ -1156,7 +1183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,7 +1209,7 @@
         <v>0.25536752336059398</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D43" s="1">
         <v>0.1</v>
       </c>
@@ -1199,7 +1226,7 @@
         <v>0.25657211794742302</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="1">
         <v>1000</v>
       </c>
@@ -1219,7 +1246,7 @@
         <v>0.24102353796242501</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D45" s="1">
         <v>0.1</v>
       </c>
@@ -1236,7 +1263,7 @@
         <v>0.24591796827806101</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>12</v>
       </c>
@@ -1259,7 +1286,7 @@
         <v>0.77565741547515299</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D47" s="1">
         <v>0.1</v>
       </c>
@@ -1276,23 +1303,41 @@
         <v>0.78314814263159505</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="1">
         <v>1000</v>
       </c>
       <c r="D48" s="1">
         <v>0.01</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5">
+      <c r="E48" s="3">
+        <v>0.17043914615015399</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.58995869816787505</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.180028144389245</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.77971961681106206</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D49" s="1">
         <v>0.1</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>21</v>
+      <c r="E49" s="3">
+        <v>0.19642145308643</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.55403001066917501</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.19592403148475801</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0.785253861954744</v>
       </c>
     </row>
   </sheetData>

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBA33CA-5CA6-4DAF-BBCC-9A0E4DC976CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06E7E7A-5A19-4778-8076-10E92397F22A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="2820" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="2445" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06E7E7A-5A19-4778-8076-10E92397F22A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACC1263-AC8E-4B3A-A9EF-33F2506AA2CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="2445" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7665" yWindow="2790" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,6 +765,18 @@
       <c r="D17" s="1">
         <v>0.1</v>
       </c>
+      <c r="E17" s="1">
+        <v>0.63494648864912595</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.93272872561406805</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.75671986065998198</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.26282757118806699</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACC1263-AC8E-4B3A-A9EF-33F2506AA2CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE70597-5014-4627-AA41-A35977714693}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="2790" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Model</t>
   </si>
@@ -434,23 +434,23 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -502,7 +502,7 @@
         <v>0.15883370851901199</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D3" s="1">
         <v>0.1</v>
       </c>
@@ -519,7 +519,7 @@
         <v>0.16455828484055099</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1">
         <v>1000</v>
       </c>
@@ -539,7 +539,7 @@
         <v>0.15606714529844401</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D5" s="1">
         <v>0.1</v>
       </c>
@@ -556,7 +556,7 @@
         <v>0.16084936975521499</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -579,7 +579,7 @@
         <v>0.70154499999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
         <v>0.1</v>
       </c>
@@ -596,7 +596,7 @@
         <v>0.70302020202020199</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>1000</v>
       </c>
@@ -607,7 +607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <v>0.1</v>
       </c>
@@ -624,7 +624,7 @@
         <v>0.71381861601812302</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -647,7 +647,7 @@
         <v>0.16013429970144499</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D11" s="1">
         <v>0.1</v>
       </c>
@@ -664,7 +664,7 @@
         <v>0.161516190632636</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>1000</v>
       </c>
@@ -684,7 +684,7 @@
         <v>0.15709468894880901</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" s="1">
         <v>0.1</v>
       </c>
@@ -701,7 +701,7 @@
         <v>0.15757881217445099</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
@@ -724,7 +724,7 @@
         <v>0.26686442924818499</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D15" s="1">
         <v>0.1</v>
       </c>
@@ -741,7 +741,7 @@
         <v>0.264427888357611</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>1000</v>
       </c>
@@ -761,7 +761,7 @@
         <v>0.26278039123734498</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D17" s="1">
         <v>0.1</v>
       </c>
@@ -778,7 +778,7 @@
         <v>0.26282757118806699</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -804,7 +804,7 @@
         <v>0.16165900969882599</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D19" s="1">
         <v>0.1</v>
       </c>
@@ -821,7 +821,7 @@
         <v>0.16875670822125999</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>1000</v>
       </c>
@@ -841,7 +841,7 @@
         <v>0.15783644225629401</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D21" s="1">
         <v>0.1</v>
       </c>
@@ -858,7 +858,7 @@
         <v>0.16333907443750101</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>12</v>
       </c>
@@ -881,7 +881,7 @@
         <v>0.69989291047214897</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D23" s="1">
         <v>0.1</v>
       </c>
@@ -898,7 +898,7 @@
         <v>0.70299460990595397</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>1000</v>
       </c>
@@ -918,7 +918,7 @@
         <v>0.71175116529549698</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D25" s="1">
         <v>0.1</v>
       </c>
@@ -926,7 +926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -952,7 +952,7 @@
         <v>2.1426417909685101E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D27" s="1">
         <v>0.1</v>
       </c>
@@ -969,7 +969,7 @@
         <v>2.1987730879509199E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>1000</v>
       </c>
@@ -989,7 +989,7 @@
         <v>1.75978142370691E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D29" s="1">
         <v>0.1</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>1.87319674758838E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>12</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>7.7219708396179004E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D31" s="1">
         <v>0.1</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>7.7219708396179004E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>1000</v>
       </c>
@@ -1060,15 +1060,24 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D33" s="1">
         <v>0.1</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <v>0.71315048440279405</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.90814921016143801</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.99308127070746399</v>
+      </c>
+      <c r="H33" s="2">
+        <v>8.0099467727302198E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
@@ -1094,7 +1103,7 @@
         <v>2.1060050598822901E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D35" s="1">
         <v>0.1</v>
       </c>
@@ -1111,32 +1120,44 @@
         <v>2.2527879759380899E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>1000</v>
       </c>
       <c r="D36" s="1">
         <v>0.01</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E36" s="1">
+        <v>0.66949181109425304</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.98849596367305703</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.99445979265068496</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1.7600907517415498E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D37" s="1">
         <v>0.1</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="2">
+        <v>0.76696426728570499</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.98075529767911196</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.99639781453533904</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1.9064590428207E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>12</v>
       </c>
@@ -1159,7 +1180,7 @@
         <v>7.7219708396179004E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D39" s="1">
         <v>0.1</v>
       </c>
@@ -1176,7 +1197,7 @@
         <v>7.7999705450685797E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C40" s="1">
         <v>1000</v>
       </c>
@@ -1187,7 +1208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D41" s="1">
         <v>0.1</v>
       </c>
@@ -1195,7 +1216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -1221,7 +1242,7 @@
         <v>0.25536752336059398</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D43" s="1">
         <v>0.1</v>
       </c>
@@ -1238,7 +1259,7 @@
         <v>0.25657211794742302</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
         <v>1000</v>
       </c>
@@ -1258,7 +1279,7 @@
         <v>0.24102353796242501</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D45" s="1">
         <v>0.1</v>
       </c>
@@ -1275,7 +1296,7 @@
         <v>0.24591796827806101</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>12</v>
       </c>
@@ -1298,7 +1319,7 @@
         <v>0.77565741547515299</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D47" s="1">
         <v>0.1</v>
       </c>
@@ -1315,7 +1336,7 @@
         <v>0.78314814263159505</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
         <v>1000</v>
       </c>
@@ -1335,7 +1356,7 @@
         <v>0.77971961681106206</v>
       </c>
     </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D49" s="1">
         <v>0.1</v>
       </c>

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE70597-5014-4627-AA41-A35977714693}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB41201-9524-4500-ABF1-4677FE9F45C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Model</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>ARMA</t>
-  </si>
-  <si>
-    <t>RUNNING3</t>
   </si>
   <si>
     <t>VAR(1)</t>
@@ -433,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,13 +919,22 @@
       <c r="D25" s="1">
         <v>0.1</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>17</v>
+      <c r="E25" s="1">
+        <v>0.77643078681612898</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.57164708621941396</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.77924720244150603</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.71484404151804803</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -1079,7 +1085,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
@@ -1218,7 +1224,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB41201-9524-4500-ABF1-4677FE9F45C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8C41EF-2AD0-4EE8-92AC-C097E1709FF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4236" yWindow="4416" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Model</t>
   </si>
@@ -69,9 +69,6 @@
     <t xml:space="preserve">            NaN</t>
   </si>
   <si>
-    <t>RUNNING4</t>
-  </si>
-  <si>
     <t>RUNNING2</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>LMAOM</t>
+  </si>
+  <si>
+    <t>RUNNING1</t>
   </si>
 </sst>
 </file>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +601,7 @@
         <v>0.01</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -623,7 +623,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <v>100</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
         <v>100</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -1059,12 +1059,18 @@
       <c r="D32" s="1">
         <v>0.01</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="E32" s="1">
+        <v>0.57453781012173899</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.95438128678468204</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>7.9779021457623694E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D33" s="1">
@@ -1085,7 +1091,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
@@ -1224,7 +1230,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8C41EF-2AD0-4EE8-92AC-C097E1709FF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53756CAE-F58E-4042-88F4-706C75AFEFB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4236" yWindow="4416" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5808" yWindow="1332" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Model</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t xml:space="preserve">            NaN</t>
-  </si>
-  <si>
-    <t>RUNNING2</t>
   </si>
   <si>
     <t>(12)12</t>
@@ -430,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +598,7 @@
         <v>0.01</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -623,7 +620,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>100</v>
@@ -700,7 +697,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>100</v>
@@ -777,7 +774,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -934,7 +931,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -1091,7 +1088,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
@@ -1216,21 +1213,39 @@
       <c r="D40" s="1">
         <v>0.01</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>12</v>
+      <c r="E40" s="2">
+        <v>0.59290693324104304</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.94585254216048997</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.99902080477645105</v>
+      </c>
+      <c r="H40" s="2">
+        <v>8.0007250889430601E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D41" s="1">
         <v>0.1</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>12</v>
+      <c r="E41" s="2">
+        <v>0.72789374490273495</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.88998827557621396</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.99481137174359502</v>
+      </c>
+      <c r="H41" s="2">
+        <v>8.0424685687830094E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>

--- a/ForegroundJobScheduler/results/summary.xlsx
+++ b/ForegroundJobScheduler/results/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53756CAE-F58E-4042-88F4-706C75AFEFB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A18F698-D0BB-4439-9E2B-CC607B8A13D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5808" yWindow="1332" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6768" yWindow="1692" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Model</t>
   </si>
@@ -64,15 +64,6 @@
   </si>
   <si>
     <t>(1)12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            NaN</t>
-  </si>
-  <si>
-    <t>(12)12</t>
-  </si>
-  <si>
-    <t>(6)12</t>
   </si>
   <si>
     <t>ARMA</t>
@@ -147,7 +138,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -425,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,9 +557,7 @@
       <c r="F6" s="1">
         <v>0.74820512820512797</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="1">
         <v>0.70154499999999997</v>
       </c>
@@ -598,7 +587,7 @@
         <v>0.01</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -619,8 +608,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>12</v>
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
       </c>
       <c r="C10" s="1">
         <v>100</v>
@@ -628,34 +620,34 @@
       <c r="D10" s="1">
         <v>0.01</v>
       </c>
-      <c r="E10" s="2">
-        <v>0.44972909172612702</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.96843999999999997</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.58061420345489401</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.16013429970144499</v>
+      <c r="E10" s="1">
+        <v>0.67583907140727895</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.94155</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.84682926830000005</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.16165900969882599</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D11" s="1">
         <v>0.1</v>
       </c>
-      <c r="E11" s="2">
-        <v>0.609087187165674</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.95399500000000004</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.83968437259430295</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.161516190632636</v>
+      <c r="E11" s="1">
+        <v>0.79456656649744895</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.90766000000000002</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.91823786436822896</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.16875670822125999</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -666,16 +658,16 @@
         <v>0.01</v>
       </c>
       <c r="E12" s="1">
-        <v>0.40815679893948598</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.98171140262361301</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.85145554681353297</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.15709468894880901</v>
+        <v>0.65511804791878103</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.95613975782038296</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.88787238354419395</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.15783644225629401</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -683,21 +675,21 @@
         <v>0.1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.58546366869463295</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.96569778002018203</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.86400371762233796</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.15757881217445099</v>
+        <v>0.78166644435979005</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.92042381432896103</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.91552596504304895</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.16333907443750101</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>13</v>
+      <c r="B14" s="1">
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <v>100</v>
@@ -706,16 +698,16 @@
         <v>0.01</v>
       </c>
       <c r="E14" s="1">
-        <v>0.51465104895348801</v>
+        <v>0.67448943850473697</v>
       </c>
       <c r="F14" s="1">
-        <v>0.95238619309654804</v>
+        <v>0.72986425339366501</v>
       </c>
       <c r="G14" s="1">
-        <v>0.62886597938144295</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0.26686442924818499</v>
+        <v>0.69989291047214897</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -723,16 +715,16 @@
         <v>0.1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.66037815249349896</v>
+        <v>0.79257039325658196</v>
       </c>
       <c r="F15" s="1">
-        <v>0.92505752876438196</v>
+        <v>0.56487682252388105</v>
       </c>
       <c r="G15" s="1">
-        <v>0.505106778087279</v>
+        <v>0.53289970466717995</v>
       </c>
       <c r="H15" s="1">
-        <v>0.264427888357611</v>
+        <v>0.70299460990595397</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -742,17 +734,17 @@
       <c r="D16" s="1">
         <v>0.01</v>
       </c>
-      <c r="E16" s="1">
-        <v>0.47045879711418598</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.96482398616058795</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.77992695793318001</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.26278039123734498</v>
+      <c r="E16" s="2">
+        <v>0.65000010673968101</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.743861165776047</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.92887931034482796</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.71175116529549698</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -760,21 +752,21 @@
         <v>0.1</v>
       </c>
       <c r="E17" s="1">
-        <v>0.63494648864912595</v>
+        <v>0.77643078681612898</v>
       </c>
       <c r="F17" s="1">
-        <v>0.93272872561406805</v>
+        <v>0.57164708621941396</v>
       </c>
       <c r="G17" s="1">
-        <v>0.75671986065998198</v>
+        <v>0.77924720244150603</v>
       </c>
       <c r="H17" s="1">
-        <v>0.26282757118806699</v>
+        <v>0.71484404151804803</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -786,33 +778,33 @@
         <v>0.01</v>
       </c>
       <c r="E18" s="1">
-        <v>0.67583907140727895</v>
+        <v>0.65956586189058397</v>
       </c>
       <c r="F18" s="1">
-        <v>0.94155</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.84682926830000005</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.16165900969882599</v>
+        <v>0.98104999999999998</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.99930345948456001</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2.1426417909685101E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D19" s="1">
         <v>0.1</v>
       </c>
-      <c r="E19" s="1">
-        <v>0.79456656649744895</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.90766000000000002</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.91823786436822896</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.16875670822125999</v>
+      <c r="E19" s="2">
+        <v>0.74955272964581998</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.97377999999999998</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.98807147135156703</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2.1987730879509199E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -823,16 +815,16 @@
         <v>0.01</v>
       </c>
       <c r="E20" s="1">
-        <v>0.65511804791878103</v>
+        <v>0.64965977604731695</v>
       </c>
       <c r="F20" s="1">
-        <v>0.95613975782038296</v>
+        <v>0.98994147325933401</v>
       </c>
       <c r="G20" s="1">
-        <v>0.88787238354419395</v>
+        <v>0.998447019471987</v>
       </c>
       <c r="H20" s="1">
-        <v>0.15783644225629401</v>
+        <v>1.75978142370691E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -840,16 +832,16 @@
         <v>0.1</v>
       </c>
       <c r="E21" s="1">
-        <v>0.78166644435979005</v>
+        <v>0.74620788168345697</v>
       </c>
       <c r="F21" s="1">
-        <v>0.92042381432896103</v>
+        <v>0.98580726538849694</v>
       </c>
       <c r="G21" s="1">
-        <v>0.91552596504304895</v>
+        <v>0.99671258926584505</v>
       </c>
       <c r="H21" s="1">
-        <v>0.16333907443750101</v>
+        <v>1.87319674758838E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -862,34 +854,30 @@
       <c r="D22" s="1">
         <v>0.01</v>
       </c>
-      <c r="E22" s="1">
-        <v>0.67448943850473697</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.72986425339366501</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.69989291047214897</v>
+      <c r="E22" s="2">
+        <v>0.57934451370836404</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.94660633484162904</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2">
+        <v>7.7219708396179004E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D23" s="1">
         <v>0.1</v>
       </c>
-      <c r="E23" s="1">
-        <v>0.79257039325658196</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.56487682252388105</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.53289970466717995</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.70299460990595397</v>
+      <c r="E23" s="2">
+        <v>0.71295478027790105</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.90520864756158903</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
+        <v>7.7219708396179004E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -899,17 +887,17 @@
       <c r="D24" s="1">
         <v>0.01</v>
       </c>
-      <c r="E24" s="2">
-        <v>0.65000010673968101</v>
+      <c r="E24" s="1">
+        <v>0.57453781012173899</v>
       </c>
       <c r="F24" s="2">
-        <v>0.743861165776047</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.92887931034482796</v>
+        <v>0.95438128678468204</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
       </c>
       <c r="H24" s="2">
-        <v>0.71175116529549698</v>
+        <v>7.9779021457623694E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -917,21 +905,21 @@
         <v>0.1</v>
       </c>
       <c r="E25" s="1">
-        <v>0.77643078681612898</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.57164708621941396</v>
+        <v>0.71315048440279405</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.90814921016143801</v>
       </c>
       <c r="G25" s="1">
-        <v>0.77924720244150603</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.71484404151804803</v>
+        <v>0.99308127070746399</v>
+      </c>
+      <c r="H25" s="2">
+        <v>8.0099467727302198E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -942,17 +930,17 @@
       <c r="D26" s="1">
         <v>0.01</v>
       </c>
-      <c r="E26" s="1">
-        <v>0.65956586189058397</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.98104999999999998</v>
+      <c r="E26" s="2">
+        <v>0.67673291885842302</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.97984000000000004</v>
       </c>
       <c r="G26" s="2">
-        <v>0.99930345948456001</v>
+        <v>0.98056089905841903</v>
       </c>
       <c r="H26" s="2">
-        <v>2.1426417909685101E-2</v>
+        <v>2.1060050598822901E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -960,16 +948,16 @@
         <v>0.1</v>
       </c>
       <c r="E27" s="2">
-        <v>0.74955272964581998</v>
+        <v>0.76495347840547701</v>
       </c>
       <c r="F27" s="2">
-        <v>0.97377999999999998</v>
+        <v>0.96462999999999999</v>
       </c>
       <c r="G27" s="2">
-        <v>0.98807147135156703</v>
+        <v>0.98940228910555295</v>
       </c>
       <c r="H27" s="2">
-        <v>2.1987730879509199E-2</v>
+        <v>2.2527879759380899E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -980,33 +968,33 @@
         <v>0.01</v>
       </c>
       <c r="E28" s="1">
-        <v>0.64965977604731695</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.98994147325933401</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.998447019471987</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1.75978142370691E-2</v>
+        <v>0.66949181109425304</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.98849596367305703</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.99445979265068496</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1.7600907517415498E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D29" s="1">
         <v>0.1</v>
       </c>
-      <c r="E29" s="1">
-        <v>0.74620788168345697</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.98580726538849694</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.99671258926584505</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1.87319674758838E-2</v>
+      <c r="E29" s="2">
+        <v>0.76696426728570499</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.98075529767911196</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.99639781453533904</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1.9064590428207E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1020,14 +1008,12 @@
         <v>0.01</v>
       </c>
       <c r="E30" s="2">
-        <v>0.57934451370836404</v>
+        <v>0.58910423145852198</v>
       </c>
       <c r="F30" s="2">
-        <v>0.94660633484162904</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>0.93690296631473102</v>
+      </c>
+      <c r="G30" s="2"/>
       <c r="H30" s="2">
         <v>7.7219708396179004E-2</v>
       </c>
@@ -1037,16 +1023,16 @@
         <v>0.1</v>
       </c>
       <c r="E31" s="2">
-        <v>0.71295478027790105</v>
+        <v>0.72330200513032195</v>
       </c>
       <c r="F31" s="2">
-        <v>0.90520864756158903</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>11</v>
+        <v>0.86647058823529399</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
       </c>
       <c r="H31" s="2">
-        <v>7.7219708396179004E-2</v>
+        <v>7.7999705450685797E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1056,39 +1042,39 @@
       <c r="D32" s="1">
         <v>0.01</v>
       </c>
-      <c r="E32" s="1">
-        <v>0.57453781012173899</v>
+      <c r="E32" s="2">
+        <v>0.59290693324104304</v>
       </c>
       <c r="F32" s="2">
-        <v>0.95438128678468204</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
+        <v>0.94585254216048997</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.99902080477645105</v>
       </c>
       <c r="H32" s="2">
-        <v>7.9779021457623694E-2</v>
+        <v>8.0007250889430601E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D33" s="1">
         <v>0.1</v>
       </c>
-      <c r="E33" s="1">
-        <v>0.71315048440279405</v>
+      <c r="E33" s="2">
+        <v>0.72789374490273495</v>
       </c>
       <c r="F33" s="2">
-        <v>0.90814921016143801</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.99308127070746399</v>
+        <v>0.88998827557621396</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.99481137174359502</v>
       </c>
       <c r="H33" s="2">
-        <v>8.0099467727302198E-2</v>
+        <v>8.0424685687830094E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
@@ -1100,16 +1086,16 @@
         <v>0.01</v>
       </c>
       <c r="E34" s="2">
-        <v>0.67673291885842302</v>
+        <v>0.189259762511405</v>
       </c>
       <c r="F34" s="2">
-        <v>0.97984000000000004</v>
+        <v>0.64320500000000003</v>
       </c>
       <c r="G34" s="2">
-        <v>0.98056089905841903</v>
+        <v>0.74989365162775601</v>
       </c>
       <c r="H34" s="2">
-        <v>2.1060050598822901E-2</v>
+        <v>0.25536752336059398</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1117,16 +1103,16 @@
         <v>0.1</v>
       </c>
       <c r="E35" s="2">
-        <v>0.76495347840547701</v>
+        <v>0.213596156621466</v>
       </c>
       <c r="F35" s="2">
-        <v>0.96462999999999999</v>
+        <v>0.60492500000000005</v>
       </c>
       <c r="G35" s="2">
-        <v>0.98940228910555295</v>
+        <v>0.75053453814829496</v>
       </c>
       <c r="H35" s="2">
-        <v>2.2527879759380899E-2</v>
+        <v>0.25657211794742302</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1137,16 +1123,16 @@
         <v>0.01</v>
       </c>
       <c r="E36" s="1">
-        <v>0.66949181109425304</v>
+        <v>0.20367194033156799</v>
       </c>
       <c r="F36" s="2">
-        <v>0.98849596367305703</v>
+        <v>0.65498385469222997</v>
       </c>
       <c r="G36" s="2">
-        <v>0.99445979265068496</v>
+        <v>0.75534150029643499</v>
       </c>
       <c r="H36" s="2">
-        <v>1.7600907517415498E-2</v>
+        <v>0.24102353796242501</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1154,16 +1140,16 @@
         <v>0.1</v>
       </c>
       <c r="E37" s="2">
-        <v>0.76696426728570499</v>
+        <v>0.241404806577872</v>
       </c>
       <c r="F37" s="2">
-        <v>0.98075529767911196</v>
+        <v>0.61889606458123103</v>
       </c>
       <c r="G37" s="2">
-        <v>0.99639781453533904</v>
+        <v>0.76214632611730504</v>
       </c>
       <c r="H37" s="2">
-        <v>1.9064590428207E-2</v>
+        <v>0.24591796827806101</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1177,16 +1163,16 @@
         <v>0.01</v>
       </c>
       <c r="E38" s="2">
-        <v>0.58910423145852198</v>
+        <v>0.196324981283276</v>
       </c>
       <c r="F38" s="2">
-        <v>0.93690296631473102</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>11</v>
+        <v>0.58384615384615401</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.19175639414422099</v>
       </c>
       <c r="H38" s="2">
-        <v>7.7219708396179004E-2</v>
+        <v>0.77565741547515299</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1194,16 +1180,16 @@
         <v>0.1</v>
       </c>
       <c r="E39" s="2">
-        <v>0.72330200513032195</v>
+        <v>0.20416238489108299</v>
       </c>
       <c r="F39" s="2">
-        <v>0.86647058823529399</v>
+        <v>0.53861739567621902</v>
       </c>
       <c r="G39" s="2">
-        <v>1</v>
+        <v>0.21021601881653901</v>
       </c>
       <c r="H39" s="2">
-        <v>7.7999705450685797E-2</v>
+        <v>0.78314814263159505</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1213,190 +1199,33 @@
       <c r="D40" s="1">
         <v>0.01</v>
       </c>
-      <c r="E40" s="2">
-        <v>0.59290693324104304</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.94585254216048997</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0.99902080477645105</v>
-      </c>
-      <c r="H40" s="2">
-        <v>8.0007250889430601E-2</v>
+      <c r="E40" s="3">
+        <v>0.17043914615015399</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.58995869816787505</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.180028144389245</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.77971961681106206</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D41" s="1">
         <v>0.1</v>
       </c>
-      <c r="E41" s="2">
-        <v>0.72789374490273495</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0.88998827557621396</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0.99481137174359502</v>
-      </c>
-      <c r="H41" s="2">
-        <v>8.0424685687830094E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1">
-        <v>100</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0.189259762511405</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0.64320500000000003</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0.74989365162775601</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0.25536752336059398</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D43" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0.213596156621466</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0.60492500000000005</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0.75053453814829496</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0.25657211794742302</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C44" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.20367194033156799</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0.65498385469222997</v>
-      </c>
-      <c r="G44" s="2">
-        <v>0.75534150029643499</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0.24102353796242501</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D45" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0.241404806577872</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0.61889606458123103</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0.76214632611730504</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0.24591796827806101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="1">
-        <v>12</v>
-      </c>
-      <c r="C46" s="1">
-        <v>100</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0.196324981283276</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0.58384615384615401</v>
-      </c>
-      <c r="G46" s="2">
-        <v>0.19175639414422099</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0.77565741547515299</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D47" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0.20416238489108299</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0.53861739567621902</v>
-      </c>
-      <c r="G47" s="2">
-        <v>0.21021601881653901</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0.78314814263159505</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0.17043914615015399</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.58995869816787505</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0.180028144389245</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0.77971961681106206</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D49" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="E41" s="3">
         <v>0.19642145308643</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F41" s="3">
         <v>0.55403001066917501</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G41" s="3">
         <v>0.19592403148475801</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H41" s="3">
         <v>0.785253861954744</v>
       </c>
     </row>
